--- a/test.xlsx
+++ b/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,92 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Houses</t>
+          <t>Under1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>1_to_4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>WIP</t>
+          <t>5_to_9</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>10_to_14</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>15_to_19</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>20_to_24</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>25_to_29</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>30_to_34</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>35_to_39</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>40_to_44</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>45_to_49</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>50_to_54</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>55_to_59</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>60_to_64</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>65_to_69</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>70_to_74</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>75_to_79</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Over80</t>
         </is>
       </c>
     </row>
@@ -463,13 +538,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>702</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>3080</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4147</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3684</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4133</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4477</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4522</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4404</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4092</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4304</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4616</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4511</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3856</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3355</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3364</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2404</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3386</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +597,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.083333</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>972.5001099999999</v>
+        <v>722.8262999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>3045.692</v>
       </c>
       <c r="E3" t="n">
-        <v>2999.988</v>
+        <v>4117.09265</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4054.99775</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3719.7316</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4087.2734</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4441.2569</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4516.1434</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4413.8182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4120.3356</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4278.496</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4577.6452</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4510.6736</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3906.4616</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3385.3055</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3330.1328</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2459.3724</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3444.4025</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +659,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.166666</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1195.754463954012</v>
+        <v>732.0398753449999</v>
       </c>
       <c r="D4" t="n">
-        <v>10000</v>
+        <v>3026.0890808</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.14459332948</v>
+        <v>4085.8890303675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4061.0044901125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3752.88624184</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4049.70176532</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4404.52617293</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4507.29990698</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4422.064501809999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4146.799625080001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4258.401464</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4540.63492994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4506.54514336</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3951.64759976</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3417.44780755</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3303.01476856</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2504.88504644</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3505.203105625</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +721,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249999</v>
+        <v>1.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.798144124193</v>
+        <v>735.4024176264468</v>
       </c>
       <c r="D5" t="n">
-        <v>10000</v>
+        <v>3013.54527446442</v>
       </c>
       <c r="E5" t="n">
-        <v>8213.954569954836</v>
+        <v>4055.356967979231</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4063.289893913494</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3783.322778043066</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4019.210272618936</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4367.722374317121</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4495.670343602906</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4428.598113301185</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4171.423353015444</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4242.982878644</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4505.373599204593</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4499.138413673936</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3991.725928480936</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3450.704844706455</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3282.088527727112</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2542.365461367164</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3567.286943341657</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +783,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.333332</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2282.11485204662</v>
+        <v>735.8064829661748</v>
       </c>
       <c r="D6" t="n">
-        <v>10000</v>
+        <v>3004.251969442144</v>
       </c>
       <c r="E6" t="n">
-        <v>10315.18390279958</v>
+        <v>4026.311662640961</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4062.293436825372</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3810.941157352305</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3994.817681106825</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4331.560847435007</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4481.526845571247</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4433.312467180372</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4194.220832696908</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4231.5839432025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4472.151198069767</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4488.964000034184</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4026.89944587916</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3484.447794500135</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3266.78569185332</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2573.371791706054</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3629.781816273759</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +845,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416665</v>
+        <v>2.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3078.952164819969</v>
+        <v>734.7090613003598</v>
       </c>
       <c r="D7" t="n">
-        <v>10000</v>
+        <v>2996.32328954802</v>
       </c>
       <c r="E7" t="n">
-        <v>12028.20677476518</v>
+        <v>3999.010676974001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4058.49214473509</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3835.695291183876</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3975.631065195152</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4296.587062547958</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4465.185787703951</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4436.138914409228</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4215.194041562366</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4223.616048208739</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4441.162638226032</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4476.509206237661</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4057.400993455734</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3518.134717650487</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3256.537402337839</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2599.223198440948</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3692.01822281965</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +907,61 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4999980000000001</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3996.627874133666</v>
+        <v>732.8483158356871</v>
       </c>
       <c r="D8" t="n">
-        <v>10000</v>
+        <v>2988.837776675742</v>
       </c>
       <c r="E8" t="n">
-        <v>13332.86693659991</v>
+        <v>3973.450069936255</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4052.341073351744</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3857.591407009879</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3960.842361580985</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4263.202486693914</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4446.98635945204</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4437.047339227216</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4234.337893017959</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4218.550231495893</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4412.524177135052</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4462.230927341528</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4083.487950859449</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3551.304350396874</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3250.783067326193</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2621.027746776985</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3753.494563187189</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +969,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.583331</v>
+        <v>3.5</v>
       </c>
       <c r="C9" t="n">
-        <v>4997.788847651736</v>
+        <v>730.6019391543368</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>2981.35832873145</v>
       </c>
       <c r="E9" t="n">
-        <v>14222.9151736315</v>
+        <v>3949.511112523601</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4044.249355956528</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3876.680614503365</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3949.725097651558</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4231.687513436613</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4427.273876268392</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4436.044569947047</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4251.644801113772</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4215.910447416603</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4386.287370096577</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4446.55089809526</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4105.436645499305</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3583.57001477579</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3248.977521573465</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2639.707909911375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3813.847005093576</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +1031,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.666664</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6045.58839426232</v>
+        <v>728.1663410454448</v>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>2973.691371384315</v>
       </c>
       <c r="E10" t="n">
-        <v>14705.07403130182</v>
+        <v>3927.032316807046</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4034.573319145437</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3893.049820587231</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3941.630704317209</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4202.221765604077</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4406.387057822334</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4433.171280522705</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4267.10862663632</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4215.267972338904</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4362.45093240493</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4429.852823139963</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4123.536867841453</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3614.613614760964</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3250.596791182277</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2656.023807400082</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3872.823519560934</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +1093,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.749997</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="n">
-        <v>7104.753312685305</v>
+        <v>725.6462698932124</v>
       </c>
       <c r="D11" t="n">
-        <v>10000</v>
+        <v>2965.765751346859</v>
       </c>
       <c r="E11" t="n">
-        <v>14797.7880264151</v>
+        <v>3905.84415493354</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4023.617490245641</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3906.812865460993</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3935.984289803348</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4174.901992945709</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4384.648612483162</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4428.497931176433</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4280.727915986313</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4216.236769796306</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4340.970837453099</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4412.480987290924</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4138.086669586723</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3644.179719741923</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3255.142624986559</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2670.59430343324</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3930.261636124542</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +1155,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.83333</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>8142.517447714573</v>
+        <v>723.099664251387</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
+        <v>2957.571590799973</v>
       </c>
       <c r="E12" t="n">
-        <v>14529.72232558583</v>
+        <v>3885.785166150797</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4011.638975839919</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3918.102646652912</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3932.279950511152</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4149.757752033589</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4362.358555945671</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4422.120175238077</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4292.508407964135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4218.469647645511</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4321.768925889368</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4394.740017937643</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4149.387563345755</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3672.069754379926</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3262.145936737228</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2683.91609186055</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3986.069503526172</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +1217,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.916663</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="n">
-        <v>9129.404464137386</v>
+        <v>720.5601295306869</v>
       </c>
       <c r="D13" t="n">
-        <v>10000</v>
+        <v>2949.12921691659</v>
       </c>
       <c r="E13" t="n">
-        <v>13938.07534914619</v>
+        <v>3866.708809127406</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3998.853012922214</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3927.064469306947</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3930.075764135225</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4126.765044555736</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4339.78976798768</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4414.154059229979</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4302.464828805954</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4221.655054029728</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4304.740256229854</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4376.895532689765</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4157.740197307895</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3698.136323725667</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3271.169288321473</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2696.380894395775</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4040.209876897695</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +1279,61 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9999960000000001</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>10039.8484786785</v>
+        <v>718.0482344949435</v>
       </c>
       <c r="D14" t="n">
-        <v>10000</v>
+        <v>2940.473216645668</v>
       </c>
       <c r="E14" t="n">
-        <v>13066.77106723595</v>
+        <v>3848.485744888783</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3985.438649892088</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3933.850617221543</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3928.98861949957</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4105.858087000318</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4317.185358714089</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4404.731260779095</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4310.622026468192</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4225.51437645332</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4289.759388612685</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4359.175455765318</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4163.440544076581</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3722.277706773908</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3281.808532836342</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2708.290896673056</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4092.686685454021</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +1341,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.083329</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="n">
-        <v>10852.64698324415</v>
+        <v>715.577222615047</v>
       </c>
       <c r="D15" t="n">
-        <v>10000</v>
+        <v>2931.644134490767</v>
       </c>
       <c r="E15" t="n">
-        <v>11964.59506079512</v>
+        <v>3831.003898193369</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3971.544087459263</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3938.616035426875</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3928.689021547867</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4086.939382824143</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4294.757475935097</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4393.994541505244</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4317.015514480755</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4229.799627078354</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4276.685760344399</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4341.771827956219</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4166.776617123556</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3744.432552034209</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3293.693726608302</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2719.87254413561</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4143.533865778173</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +1403,61 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.166662</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>11551.24598519734</v>
+        <v>713.1559338849356</v>
       </c>
       <c r="D16" t="n">
-        <v>10000</v>
+        <v>2922.684064573496</v>
       </c>
       <c r="E16" t="n">
-        <v>10683.33493637514</v>
+        <v>3814.167474990468</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3957.2914913283</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3941.514979026571</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3928.895985131459</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4069.888264881668</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4272.687239381221</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4382.093537404552</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4321.691506323067</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4234.291416191516</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4265.368284089261</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4324.842968807941</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4168.025709400041</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3764.574806486142</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3306.489410630132</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2731.288816386987</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4192.806174906157</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +1465,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.249995</v>
+        <v>7.5</v>
       </c>
       <c r="C17" t="n">
-        <v>12123.86234149442</v>
+        <v>710.7903333007421</v>
       </c>
       <c r="D17" t="n">
-        <v>10000</v>
+        <v>2913.634255037819</v>
       </c>
       <c r="E17" t="n">
-        <v>9275.98065938439</v>
+        <v>3797.895527189359</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3942.781225119951</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3942.698478758842</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3929.372105323944</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4054.568070427183</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4251.125535759451</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4369.180965510387</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4324.70652537679</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4238.797133788479</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4255.649276459148</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4308.515877210934</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4167.452135074171</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3782.708905419264</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3319.894353991558</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2742.650094814362</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4240.57172464365</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +1527,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.333328</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>12563.45275701666</v>
+        <v>708.4843427786675</v>
       </c>
       <c r="D18" t="n">
-        <v>10000</v>
+        <v>2904.533776382959</v>
       </c>
       <c r="E18" t="n">
-        <v>7795.034081080892</v>
+        <v>3782.120361573791</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3928.095516265636</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3942.312483547077</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3929.918868246369</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4040.832103495731</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4230.194451565496</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4355.409291100814</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4326.126674822385</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4243.149275813522</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4247.367805813569</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4292.88877903045</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4165.305445961058</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3798.865245842781</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3333.640844465211</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2754.023734129718</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4286.90600392549</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +1589,61 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.416661</v>
+        <v>8.5</v>
       </c>
       <c r="C19" t="n">
-        <v>12867.54276325722</v>
+        <v>706.2403238155905</v>
       </c>
       <c r="D19" t="n">
-        <v>10000</v>
+        <v>2895.418772346784</v>
       </c>
       <c r="E19" t="n">
-        <v>6290.969671600301</v>
+        <v>3766.785941446203</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3913.301596020638</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3940.496555570578</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3930.37224600279</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4028.528530339746</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4209.98915842305</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4340.927872966286</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4326.026647777852</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4247.203866438595</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4240.362532714554</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4278.033748639089</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4161.819088028748</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3813.095960904136</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3347.493604327209</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2765.442444056475</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4331.887179627467</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +1651,61 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.499994</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>13037.93212834082</v>
+        <v>704.0593836720924</v>
       </c>
       <c r="D20" t="n">
-        <v>10000</v>
+        <v>2886.322045833997</v>
       </c>
       <c r="E20" t="n">
-        <v>4810.880531594777</v>
+        <v>3751.846354547858</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3898.454365483393</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3937.383009960027</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3930.598602510368</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4017.504343346949</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4190.580098867193</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4325.880583969128</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4324.488551643251</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4250.838940706082</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4234.474104161251</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4263.999346049902</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4157.20945964647</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3825.471007447263</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3361.248402662495</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2776.911582778994</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4375.592488128138</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +1713,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.583327</v>
+        <v>9.5</v>
       </c>
       <c r="C21" t="n">
-        <v>13080.29553632337</v>
+        <v>701.9415907803823</v>
       </c>
       <c r="D21" t="n">
-        <v>10000</v>
+        <v>2877.27284973621</v>
       </c>
       <c r="E21" t="n">
-        <v>3397.335432051289</v>
+        <v>3737.264382504594</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3883.598641671565</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3933.096407211367</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3930.490923534832</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4007.608517960286</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4172.015349285508</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4310.403889196148</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4321.600612889689</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4253.953062859093</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4229.547152954284</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4250.813223430517</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4151.675331394193</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3836.074573723245</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3374.73042879488</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2788.415459018379</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4418.09555016915</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +1775,61 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.66666</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>13003.69900146611</v>
+        <v>699.8861417020399</v>
       </c>
       <c r="D22" t="n">
-        <v>10000</v>
+        <v>2868.296811624401</v>
       </c>
       <c r="E22" t="n">
-        <v>2087.464206778418</v>
+        <v>3723.010187252036</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3868.771035822785</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3927.753321016666</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3929.965373717779</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3998.694475962353</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4154.3230615482</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4294.625353454946</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4317.455820091312</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4256.463864799293</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4225.431945857686</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4238.48466464666</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4145.397586805388</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3845.001809505372</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3387.792485085526</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2799.922734738619</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4459.464460249395</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +1837,61 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.749993</v>
+        <v>10.5</v>
       </c>
       <c r="C23" t="n">
-        <v>12820.05336407615</v>
+        <v>697.8915004109956</v>
       </c>
       <c r="D23" t="n">
-        <v>10000</v>
+        <v>2859.415951341209</v>
       </c>
       <c r="E23" t="n">
-        <v>912.2805564782502</v>
+        <v>3709.06011947052</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3854.001512413919</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3921.462317165177</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3928.958175372924</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3990.621957395107</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4137.513906071151</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4278.662542855217</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4312.150554353611</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4258.306596463696</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4221.985718235767</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4227.007029572611</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4138.539244000974</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3852.355876559292</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3400.313051173673</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2811.391015556227</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4499.760518984853</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +1899,61 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.833326</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>12543.52638238293</v>
+        <v>695.9555200219252</v>
       </c>
       <c r="D24" t="n">
-        <v>10000</v>
+        <v>2850.648766033921</v>
       </c>
       <c r="E24" t="n">
-        <v>-103.7565470889832</v>
+        <v>3695.395648435146</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3839.314673043958</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3914.324090458334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3927.422797917075</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3983.25839260567</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4121.583457031725</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4262.622281032525</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4305.783247815724</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4259.432685656224</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4219.073728195295</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4216.360081567952</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4131.245719506534</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3858.245313631761</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3412.194265810733</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2822.770710955071</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4539.037492645039</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +1961,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.916659</v>
+        <v>11.5</v>
       </c>
       <c r="C25" t="n">
-        <v>12189.93444231673</v>
+        <v>694.0755518582373</v>
       </c>
       <c r="D25" t="n">
-        <v>10000</v>
+        <v>2842.01036541404</v>
       </c>
       <c r="E25" t="n">
-        <v>-942.9489388428839</v>
+        <v>3682.002409563449</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3824.730804849425</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3906.43171630785</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3925.327442611617</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3976.479855619029</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4106.51447555201</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4246.60021860598</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4298.453102863933</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4259.808309186517</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4216.570059662686</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4206.512182034923</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4123.6452974066</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3862.781706868811</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3423.35986678789</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2834.008241425497</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4577.341298510875</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +2023,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.999992</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>11776.13382212522</v>
+        <v>692.2485442263708</v>
       </c>
       <c r="D26" t="n">
-        <v>10000</v>
+        <v>2833.512644629862</v>
       </c>
       <c r="E26" t="n">
-        <v>-1594.345402448612</v>
+        <v>3668.869364163381</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3810.266728780585</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3897.870981990377</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3922.652804492718</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3970.171670361602</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4092.279059216046</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4230.680674202211</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4290.258897266133</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4259.412980245073</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4214.358201022592</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4197.422340560815</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4115.849769209546</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3866.077653852064</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3433.753124101461</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2845.048664681645</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4614.710027858466</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +2085,61 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.083325</v>
+        <v>12.5</v>
       </c>
       <c r="C27" t="n">
-        <v>11319.42985196925</v>
+        <v>690.4711320705308</v>
       </c>
       <c r="D27" t="n">
-        <v>10000</v>
+        <v>2825.164484899852</v>
       </c>
       <c r="E27" t="n">
-        <v>-2053.526056223005</v>
+        <v>3655.988064857568</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3795.936478982425</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3888.720769571199</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3919.390091681586</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3964.228732273605</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4078.840636612837</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4214.936706400204</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4281.297893731655</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4258.238158966934</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4212.331423733255</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4189.042112989647</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4107.955212244756</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3868.245007230085</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3443.334796460327</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2855.837788190507</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4651.174230329238</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +2147,61 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.166658</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>10837.02028933414</v>
+        <v>688.7397181440813</v>
       </c>
       <c r="D28" t="n">
-        <v>10000</v>
+        <v>2816.971973874146</v>
       </c>
       <c r="E28" t="n">
-        <v>-2322.207760796386</v>
+        <v>3643.35201958105</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3781.75184074599</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3879.053468435364</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3915.539281452211</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3958.555599594721</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4066.155793987929</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4199.430377903587</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4271.664866472897</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4256.28589428444</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4210.392983549837</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4181.317342992833</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4100.042876991491</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3869.393382188895</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3452.081136531992</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2866.32383039707</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4686.757394268092</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +2209,61 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.249991</v>
+        <v>13.5</v>
       </c>
       <c r="C29" t="n">
-        <v>10345.48688411924</v>
+        <v>687.0505461119747</v>
       </c>
       <c r="D29" t="n">
-        <v>10000</v>
+        <v>2808.938639014531</v>
       </c>
       <c r="E29" t="n">
-        <v>-2407.696868550269</v>
+        <v>3630.956146756234</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3767.722771037459</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3868.935400319583</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3911.107592294235</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3953.066401100591</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4054.175927810412</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4184.213175841965</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4261.451252209436</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4253.567505609001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4208.456165498795</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4174.18974542535</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4092.180156371358</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3869.62891071424</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3459.981965959669</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2876.458688276852</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4721.476567365889</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +2271,61 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.333324</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>9860.346529662618</v>
+        <v>685.399765924941</v>
       </c>
       <c r="D30" t="n">
-        <v>10000</v>
+        <v>2801.0656883298</v>
       </c>
       <c r="E30" t="n">
-        <v>-2322.218099460604</v>
+        <v>3618.796314150089</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3753.857722470785</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3858.427243851339</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3906.108151578311</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3947.684600299625</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4042.848722361087</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4169.32655510968</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4250.744428696142</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4250.102312763435</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4206.444192453292</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4167.598332043674</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4084.421612666909</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3869.053224706738</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3467.038837168721</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2886.198864213255</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4755.343070697658</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +2333,61 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.416657</v>
+        <v>14.5</v>
       </c>
       <c r="C31" t="n">
-        <v>9395.670683852664</v>
+        <v>683.7834917980381</v>
       </c>
       <c r="D31" t="n">
-        <v>10000</v>
+        <v>2793.352253682213</v>
       </c>
       <c r="E31" t="n">
-        <v>-2082.149728003754</v>
+        <v>3606.868953960598</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3740.163888752591</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3847.584448988898</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3900.558839175298</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3942.342650047404</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4032.119455538233</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4154.802574885021</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4239.627120237408</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4245.916422043942</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4204.290015986004</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4161.48068208773</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4076.810040315184</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3867.762649476985</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3473.26329531827</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2895.506100703597</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4788.363267068984</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +2395,61 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.49999</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>8963.778990286755</v>
+        <v>682.1978531434218</v>
       </c>
       <c r="D32" t="n">
-        <v>10000</v>
+        <v>2785.795632645587</v>
       </c>
       <c r="E32" t="n">
-        <v>-1707.195645109994</v>
+        <v>3595.170746827117</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3726.647387078955</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3836.457634520369</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3894.481288388823</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3936.981566165179</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4021.932139152488</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4140.664601791645</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4228.176926718003</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4241.041575441245</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4201.936007067019</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4155.774061840547</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4069.37754533521</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3865.847588928891</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3478.675250440022</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2904.347767063174</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4820.539351534386</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +2457,61 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.583323</v>
+        <v>15.5</v>
       </c>
       <c r="C33" t="n">
-        <v>8575.010319375608</v>
+        <v>680.639038830832</v>
       </c>
       <c r="D33" t="n">
-        <v>10000</v>
+        <v>2778.391525573335</v>
       </c>
       <c r="E33" t="n">
-        <v>-1219.524288806308</v>
+        <v>3583.698367687762</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3713.313390684417</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3825.092964012775</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3887.9000267443</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3931.550443917694</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4012.230502212012</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4126.928056456923</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4216.465970376665</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4235.51406899348</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4199.333563093488</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4150.416398614777</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4062.146624558936</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3863.392083794842</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3483.301466834597</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2912.697038137491</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4851.87013809573</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +2519,61 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.666656</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>8237.571861284818</v>
+        <v>679.10333517077</v>
       </c>
       <c r="D34" t="n">
-        <v>10000</v>
+        <v>2771.134265139527</v>
       </c>
       <c r="E34" t="n">
-        <v>-642.9030110253216</v>
+        <v>3572.448286697268</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3700.166222715217</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3813.532497383538</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3880.841740465798</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3926.005937067179</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4002.958827231917</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4113.601183407026</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4204.560652805427</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4229.373745062805</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4196.442646660692</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4145.347115705972</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4055.13123012874</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3860.473524576862</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3487.174174155643</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2920.532901062678</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4882.351821986834</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +2581,61 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.749989</v>
+        <v>16.5</v>
       </c>
       <c r="C35" t="n">
-        <v>7957.464504614617</v>
+        <v>677.5871580312494</v>
       </c>
       <c r="D35" t="n">
-        <v>10000</v>
+        <v>2764.017036155957</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.854278073339174</v>
+        <v>3561.416618755647</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3687.209420802286</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3801.814516666968</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3873.33464780948</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3920.311715625921</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3994.062650567273</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4100.685827256982</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4192.521513408623</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4222.663062092004</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4193.231270398579</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4140.50783572375</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4048.337806888961</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3857.162501337046</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3490.329802291039</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2927.840022344015</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4911.978701661309</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +2643,61 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.833322</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>7738.480583504125</v>
+        <v>676.0870795083947</v>
       </c>
       <c r="D36" t="n">
-        <v>10000</v>
+        <v>2757.032083948471</v>
       </c>
       <c r="E36" t="n">
-        <v>679.142686229147</v>
+        <v>3550.599015568639</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3674.445780126582</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3789.973825628833</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3865.407967765666</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3914.437915329589</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3985.489338277968</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4088.178200965745</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4180.403179734073</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4215.426244161574</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4189.674941098804</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4135.842960385496</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4041.766292325573</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3853.522773134349</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3492.807840133188</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2934.608503961103</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4940.743848681415</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +2705,61 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.916655</v>
+        <v>17.5</v>
       </c>
       <c r="C37" t="n">
-        <v>7582.26821616216</v>
+        <v>674.5998495742372</v>
       </c>
       <c r="D37" t="n">
-        <v>10000</v>
+        <v>2750.170910000715</v>
       </c>
       <c r="E37" t="n">
-        <v>1376.384478897016</v>
+        <v>3539.990594554556</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3661.877381381782</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3778.042023696045</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3857.09147195843</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3908.360589198598</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3977.188549181647</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4076.069634506533</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4168.254399631426</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4207.708511474662</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4185.756075246378</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4131.300135351901</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4035.411070591496</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3849.611340691979</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3494.649816599999</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2940.833553861369</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4968.6397172109</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +2767,61 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.999988</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>7488.454922047129</v>
+        <v>673.1224131225016</v>
       </c>
       <c r="D38" t="n">
-        <v>10000</v>
+        <v>2743.424453946744</v>
       </c>
       <c r="E38" t="n">
-        <v>2067.593602087326</v>
+        <v>3529.585899319462</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3649.50560882999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3766.047755262249</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3848.4151088378</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3902.061169297822</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3969.112596618587</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4064.347294638516</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4156.118145039195</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4199.555391778864</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4181.463396952574</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4126.830609016504</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4029.26187389223</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3845.478606771848</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3495.898400806517</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2946.515093074975</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4995.658687796951</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +2829,61 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.083321</v>
+        <v>18.5</v>
       </c>
       <c r="C39" t="n">
-        <v>7454.822013063617</v>
+        <v>671.6519228258412</v>
       </c>
       <c r="D39" t="n">
-        <v>10000</v>
+        <v>2736.783261319257</v>
       </c>
       <c r="E39" t="n">
-        <v>2732.47316836877</v>
+        <v>3519.378886835892</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3637.331162598496</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3754.016935843497</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3839.408690458477</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3895.52594490103</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3961.216720107525</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4052.994868553936</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4144.0317772976</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4191.012111713118</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4176.791328169927</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4122.389494348472</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4023.304626096477</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3841.168609703932</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3496.596617075146</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2951.657318775162</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5021.793542635362</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +2891,61 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.166654</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>7477.520414274464</v>
+        <v>670.1857482067353</v>
       </c>
       <c r="D40" t="n">
-        <v>10000</v>
+        <v>2730.237636741139</v>
       </c>
       <c r="E40" t="n">
-        <v>3353.157250570573</v>
+        <v>3509.362936872868</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3625.354068464105</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3741.972956825412</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3830.101633258887</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3888.745561673305</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3953.459277570844</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4041.993206018446</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4132.027264179125</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4182.123066159854</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4171.739379965582</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4117.935942944181</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4017.5222248799</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3836.719316545933</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3496.787169490688</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2956.268239917861</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5047.037871596228</v>
       </c>
     </row>
     <row r="41">
@@ -1123,560 +2953,61 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.249987</v>
+        <v>19.5</v>
       </c>
       <c r="C41" t="n">
-        <v>7551.318078570959</v>
+        <v>668.7214813099049</v>
       </c>
       <c r="D41" t="n">
-        <v>10000</v>
+        <v>2723.77778248819</v>
       </c>
       <c r="E41" t="n">
-        <v>3914.55176267784</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.33332</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7669.869004094478</v>
-      </c>
-      <c r="D42" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4404.564462872393</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.416653</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7825.994020552016</v>
-      </c>
-      <c r="D43" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4814.226117615027</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3.499986</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8011.963950905391</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5137.707973697169</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.583319</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8219.776442143633</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5372.243387441867</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.666652</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8441.418652365785</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5517.963708223552</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.749985</v>
-      </c>
-      <c r="C47" t="n">
-        <v>8669.109037679171</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5577.660276295767</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.833318</v>
-      </c>
-      <c r="C48" t="n">
-        <v>8895.512656549543</v>
-      </c>
-      <c r="D48" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5556.485658743539</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.916651</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9113.925656400897</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5461.608014510492</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.999984</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9318.425884054897</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5301.832766937865</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.083317</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9503.987827237468</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5087.205600186845</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.166650000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9666.561311707468</v>
-      </c>
-      <c r="D52" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4828.610225477754</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.249983</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9803.114514876996</v>
-      </c>
-      <c r="D53" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4537.373434403943</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.333316</v>
-      </c>
-      <c r="C54" t="n">
-        <v>9911.642884469658</v>
-      </c>
-      <c r="D54" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4224.888726521781</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.416649</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9991.146447674699</v>
-      </c>
-      <c r="D55" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3902.268328308501</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.499982</v>
-      </c>
-      <c r="C56" t="n">
-        <v>10041.57874599269</v>
-      </c>
-      <c r="D56" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3580.031774009266</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.583315</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10063.77122287506</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3267.837459626518</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.666648</v>
-      </c>
-      <c r="C58" t="n">
-        <v>10059.33732028389</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2974.26177134007</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.749981</v>
-      </c>
-      <c r="C59" t="n">
-        <v>10030.56080669427</v>
-      </c>
-      <c r="D59" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2706.628587504119</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.833314000000001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9980.272967954348</v>
-      </c>
-      <c r="D60" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2470.890212604623</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.916647</v>
-      </c>
-      <c r="C61" t="n">
-        <v>9911.72325325261</v>
-      </c>
-      <c r="D61" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2271.559169563483</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.99998</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9828.447794354955</v>
-      </c>
-      <c r="D62" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2111.68879383305</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>5.083313</v>
-      </c>
-      <c r="C63" t="n">
-        <v>9734.139923395942</v>
-      </c>
-      <c r="D63" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1992.899271388635</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5.166646</v>
-      </c>
-      <c r="C64" t="n">
-        <v>9632.526421240575</v>
-      </c>
-      <c r="D64" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1915.44466746059</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5.249979000000001</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9527.252754707859</v>
-      </c>
-      <c r="D65" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1878.315619942133</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5.333312</v>
-      </c>
-      <c r="C66" t="n">
-        <v>9421.780027507833</v>
-      </c>
-      <c r="D66" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1879.371729153215</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5.416645</v>
-      </c>
-      <c r="C67" t="n">
-        <v>9319.295797452696</v>
-      </c>
-      <c r="D67" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1915.49726471845</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>5.499978</v>
-      </c>
-      <c r="C68" t="n">
-        <v>9222.640321706067</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1982.773624401165</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5.583311</v>
-      </c>
-      <c r="C69" t="n">
-        <v>9134.249201791808</v>
-      </c>
-      <c r="D69" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2076.662006244016</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5.666644000000001</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9056.112828476278</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2192.189976346016</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>5.749977</v>
-      </c>
-      <c r="C71" t="n">
-        <v>8989.752489164433</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2324.136007705519</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>5.83331</v>
-      </c>
-      <c r="C72" t="n">
-        <v>8936.21251051531</v>
-      </c>
-      <c r="D72" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2467.206605057236</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5.916643000000001</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8896.06737747875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2616.201288482912</v>
+        <v>3499.53087963138</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3613.573687601559</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3729.936870693599</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3820.522745288888</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3881.714545163361</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3945.801868197819</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4031.320916230977</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4120.131439278132</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4172.931362895622</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4166.311552546063</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4113.433240383255</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4011.895260009297</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3832.162963411709</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3496.511869935204</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2960.359199620531</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5071.386409989716</v>
       </c>
     </row>
   </sheetData>
